--- a/2-Patient Data/MN0/Pre Evaluation/Report_0.xlsx
+++ b/2-Patient Data/MN0/Pre Evaluation/Report_0.xlsx
@@ -457,35 +457,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5625</v>
+        <v>0.3125</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -493,13 +493,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6592592592592592</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5843137254901961</v>
+        <v>0.2995951417004049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="D5" t="n">
         <v>32</v>
@@ -507,13 +507,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6680555555555556</v>
+        <v>0.3257352941176471</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5625</v>
+        <v>0.3125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5056818181818182</v>
+        <v>0.3179563492063492</v>
       </c>
       <c r="D6" t="n">
         <v>32</v>
